--- a/01-Excel/01-Activites/2/Activities/11-Ins_Lookups/Solved/Lookups.xlsx
+++ b/01-Excel/01-Activites/2/Activities/11-Ins_Lookups/Solved/Lookups.xlsx
@@ -1,26 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10123"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tomberton/Desktop/DV-Lesson-Plans/01-Excel/2/Activities/11-Ins_Lookups/Solved/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dcorless/Documents/coding-boot-camp/DataViz-Lesson-Plans/01-Lesson-Plans/01-Excel/2/Activities/11-Ins_Lookups/Solved/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{454FF0F3-FCB9-AD45-AF4C-F7339BE56D07}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D997293-CC87-804D-AF85-DAEC061455EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16300" tabRatio="706" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16300" tabRatio="706" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="VLookup" sheetId="1" r:id="rId1"/>
     <sheet name="HLookup" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -28,36 +32,39 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="10">
-  <si>
-    <t>Computer</t>
-  </si>
-  <si>
-    <t>Keyboard</t>
-  </si>
-  <si>
-    <t>Mouse</t>
-  </si>
-  <si>
-    <t>Printer</t>
-  </si>
-  <si>
-    <t>HP</t>
-  </si>
-  <si>
-    <t>Dell</t>
-  </si>
-  <si>
-    <t>Logitech</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="11">
   <si>
     <t>ID</t>
   </si>
   <si>
-    <t>Product</t>
-  </si>
-  <si>
-    <t>Brand</t>
+    <t>Employee</t>
+  </si>
+  <si>
+    <t>Role</t>
+  </si>
+  <si>
+    <t>Data Analyst</t>
+  </si>
+  <si>
+    <t>Project Manager</t>
+  </si>
+  <si>
+    <t>Software Engineer</t>
+  </si>
+  <si>
+    <t>Data Engineer</t>
+  </si>
+  <si>
+    <t>Lamai Malee</t>
+  </si>
+  <si>
+    <t>Elimu Juma</t>
+  </si>
+  <si>
+    <t>Jordan Brown</t>
+  </si>
+  <si>
+    <t>Gabriella Russo</t>
   </si>
 </sst>
 </file>
@@ -542,25 +549,27 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.83203125" customWidth="1"/>
-    <col min="2" max="2" width="9.6640625" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="8.6640625" customWidth="1"/>
-    <col min="5" max="7" width="9.6640625" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -569,7 +578,7 @@
       </c>
       <c r="B2" s="5" t="str">
         <f>VLOOKUP(A2,$E$4:$G$7,3,FALSE)</f>
-        <v>Printer</v>
+        <v>Data Engineer</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -578,16 +587,16 @@
       </c>
       <c r="B3" s="10" t="str">
         <f t="shared" ref="B3:B11" si="0">VLOOKUP(A3,$E$4:$G$7,3,FALSE)</f>
-        <v>Mouse</v>
+        <v>Software Engineer</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -596,16 +605,16 @@
       </c>
       <c r="B4" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>Printer</v>
+        <v>Data Engineer</v>
       </c>
       <c r="E4">
         <v>101</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G4" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -614,16 +623,16 @@
       </c>
       <c r="B5" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>Computer</v>
+        <v>Project Manager</v>
       </c>
       <c r="E5">
         <v>102</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G5" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -632,16 +641,16 @@
       </c>
       <c r="B6" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>Keyboard</v>
+        <v>Data Analyst</v>
       </c>
       <c r="E6">
         <v>103</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G6" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -650,16 +659,16 @@
       </c>
       <c r="B7" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>Mouse</v>
+        <v>Software Engineer</v>
       </c>
       <c r="E7">
         <v>104</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G7" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -668,7 +677,7 @@
       </c>
       <c r="B8" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>Computer</v>
+        <v>Project Manager</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -677,7 +686,7 @@
       </c>
       <c r="B9" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>Printer</v>
+        <v>Data Engineer</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -686,7 +695,7 @@
       </c>
       <c r="B10" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>Computer</v>
+        <v>Project Manager</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -695,7 +704,7 @@
       </c>
       <c r="B11" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>Keyboard</v>
+        <v>Data Analyst</v>
       </c>
     </row>
   </sheetData>
@@ -709,25 +718,28 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.83203125" customWidth="1"/>
-    <col min="2" max="2" width="9.6640625" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="8.6640625" customWidth="1"/>
-    <col min="5" max="7" width="9.6640625" customWidth="1"/>
-    <col min="8" max="9" width="8.6640625" customWidth="1"/>
+    <col min="5" max="5" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -738,7 +750,7 @@
       </c>
       <c r="B2" s="10" t="str">
         <f>HLOOKUP(A2,$E$4:$H$6,3,FALSE)</f>
-        <v>Printer</v>
+        <v>Data Engineer</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -747,7 +759,7 @@
       </c>
       <c r="B3" s="10" t="str">
         <f t="shared" ref="B3:B11" si="0">HLOOKUP(A3,$E$4:$H$6,3,FALSE)</f>
-        <v>Mouse</v>
+        <v>Software Engineer</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -756,10 +768,10 @@
       </c>
       <c r="B4" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>Printer</v>
+        <v>Data Engineer</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7">
         <v>101</v>
@@ -780,22 +792,22 @@
       </c>
       <c r="B5" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>Computer</v>
+        <v>Project Manager</v>
       </c>
       <c r="D5" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="G5" s="16" t="s">
-        <v>6</v>
-      </c>
       <c r="H5" s="16" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -804,22 +816,22 @@
       </c>
       <c r="B6" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>Keyboard</v>
+        <v>Data Analyst</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H6" s="13" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -828,7 +840,7 @@
       </c>
       <c r="B7" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>Mouse</v>
+        <v>Software Engineer</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -837,7 +849,7 @@
       </c>
       <c r="B8" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>Computer</v>
+        <v>Project Manager</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -846,7 +858,7 @@
       </c>
       <c r="B9" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>Printer</v>
+        <v>Data Engineer</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -855,7 +867,7 @@
       </c>
       <c r="B10" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>Computer</v>
+        <v>Project Manager</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -864,7 +876,7 @@
       </c>
       <c r="B11" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>Keyboard</v>
+        <v>Data Analyst</v>
       </c>
     </row>
   </sheetData>
